--- a/K-RRT/excel/setting_KRRT.xlsx
+++ b/K-RRT/excel/setting_KRRT.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\K-RRT\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\IRDBR\K-RRT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EEFDE-894E-4DF4-B7F0-BC8ABA5E4A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="no_price" sheetId="2" r:id="rId2"/>
-    <sheet name="price" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="tl" sheetId="5" r:id="rId5"/>
+    <sheet name="new_setting" sheetId="7" r:id="rId2"/>
+    <sheet name="no_price" sheetId="2" r:id="rId3"/>
+    <sheet name="price" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="tl" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="result_noprice" localSheetId="1">no_price!$C$14:$AE$18</definedName>
-    <definedName name="result_noprice_1" localSheetId="1">no_price!$C$20:$AE$25</definedName>
-    <definedName name="result_price" localSheetId="1">no_price!$C$6:$AE$9</definedName>
-    <definedName name="result_price" localSheetId="2">price!$D$5:$AF$8</definedName>
+    <definedName name="result_noprice" localSheetId="2">no_price!$C$14:$AE$18</definedName>
+    <definedName name="result_noprice_1" localSheetId="2">no_price!$C$20:$AE$25</definedName>
+    <definedName name="result_price" localSheetId="2">no_price!$C$6:$AE$9</definedName>
+    <definedName name="result_price" localSheetId="3">price!$D$5:$AF$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +36,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="result_noprice" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="result_noprice" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_noprice.txt" tab="0" comma="1">
       <textFields count="29">
         <textField/>
@@ -70,7 +72,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="result_noprice1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="result_noprice1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_noprice.txt" tab="0" comma="1">
       <textFields count="29">
         <textField/>
@@ -105,7 +107,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="result_price" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="result_price" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_price.txt" tab="0" comma="1">
       <textFields count="26">
         <textField/>
@@ -137,7 +139,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="result_price2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="result_price2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_price.txt" tab="0" comma="1">
       <textFields count="26">
         <textField/>
@@ -173,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="48">
   <si>
     <t>AP1</t>
   </si>
@@ -322,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -415,19 +417,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result_noprice_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result_noprice" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result_price" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result_price" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,22 +694,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -748,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -797,7 +799,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -846,7 +848,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -895,7 +897,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -944,7 +946,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -993,7 +995,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>47</v>
       </c>
@@ -1346,13 +1348,13 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M18">
         <f>AVERAGE(M12:M16)</f>
         <v>67.584000000000017</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1440,7 @@
         <v>48.666666666666664</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>61.833333333333336</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>39.166666666666664</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>59.666666666666664</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -1564,45 +1566,911 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D933FD4B-5259-4884-AA5C-17A8B46C56F1}">
+  <dimension ref="B3:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="0">1/P4</f>
+        <v>0.625</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="1">E4/F4</f>
+        <v>3.2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M8" si="2">L4*J4</f>
+        <v>125</v>
+      </c>
+      <c r="N4">
+        <f>(L4*8)/(H4+I4)</f>
+        <v>200</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f>(O4*8)/(H4+I4)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N8" si="3">(L5*8)/(H5+I5)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P8" si="4">(O5*8)/(H5+I5)</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f>1/P6</f>
+        <v>2.1875</v>
+      </c>
+      <c r="G6">
+        <f>E6/F6</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>1.25</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <f>L6*J6</f>
+        <v>312.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0.45714285714285713</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="5">1/P12</f>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G13" si="6">E12/F12</f>
+        <v>0.4</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <v>0.02</v>
+      </c>
+      <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="L12">
+        <v>3072</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M13" si="7">L12*J12</f>
+        <v>61.44</v>
+      </c>
+      <c r="N12">
+        <f>(L12*8)/(H12+I12)</f>
+        <v>307.2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f>(O12*8)/(H12+I12)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>0.05</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>3072</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>153.60000000000002</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N17" si="8">(L13*8)/(H13+I13)</f>
+        <v>307.2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P17" si="9">(O13*8)/(H13+I13)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f>1/P14</f>
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f>E14/F14</f>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>3072</v>
+      </c>
+      <c r="M14">
+        <f>L14*J14</f>
+        <v>30.72</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>307.2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F17" si="10">1/P15</f>
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G17" si="11">E15/F15</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>0.02</v>
+      </c>
+      <c r="K15">
+        <v>500</v>
+      </c>
+      <c r="L15">
+        <v>3072</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M17" si="12">L15*J15</f>
+        <v>61.44</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>307.2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>0.01</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16">
+        <v>3072</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>30.72</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>307.2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="L17">
+        <v>3072</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>307.2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>AVERAGE(M12:M16)</f>
+        <v>67.584000000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <f>((E20*H20)+(F20*I20)+(G20*J20))/(H20+I20+J20)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K25" si="13">((E21*H21)+(F21*I21)+(G21*J21))/(H21+I21+J21)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>150</v>
+      </c>
+      <c r="I22">
+        <v>150</v>
+      </c>
+      <c r="J22">
+        <v>150</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="13"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>120</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="13"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="13"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>65</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
+        <v>55.333333333333336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:AF24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="7.77734375" customWidth="1"/>
-    <col min="21" max="21" width="6.44140625" customWidth="1"/>
-    <col min="22" max="23" width="7.77734375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" customWidth="1"/>
+    <col min="22" max="23" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="7.77734375" customWidth="1"/>
-    <col min="27" max="27" width="6.44140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.77734375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1644,7 +2512,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +2604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>100000</v>
       </c>
@@ -1825,7 +2693,7 @@
         <v>1.152547</v>
       </c>
     </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>100000</v>
       </c>
@@ -1914,7 +2782,7 @@
         <v>1.066522</v>
       </c>
     </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>100000</v>
       </c>
@@ -2003,7 +2871,7 @@
         <v>1.066827</v>
       </c>
     </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>100000</v>
       </c>
@@ -2092,7 +2960,7 @@
         <v>1.0686199999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>7.5</v>
       </c>
@@ -2100,7 +2968,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -2174,7 +3042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>28</v>
       </c>
@@ -2249,7 +3117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +3192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>28</v>
       </c>
@@ -2399,42 +3267,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R17" s="1"/>
       <c r="U17" s="1"/>
       <c r="X17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="20" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R20" s="1"/>
       <c r="U20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R21" s="1"/>
       <c r="U21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R22" s="1"/>
       <c r="U22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R23" s="1"/>
       <c r="U23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R24" s="1"/>
       <c r="U24" s="1"/>
       <c r="X24" s="1"/>
@@ -2450,52 +3318,51 @@
     <mergeCell ref="AA4:AE4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AD13" r:id="rId1"/>
-    <hyperlink ref="AD14:AD16" r:id="rId2" display="\\"/>
+    <hyperlink ref="AD13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="AD14:AD16" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AJ20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="14" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
     <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7" hidden="1" customWidth="1"/>
     <col min="25" max="26" width="7" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2537,7 +3404,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +3496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>100000</v>
       </c>
@@ -2676,7 +3543,7 @@
         <v>1.152547</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -2741,7 +3608,7 @@
         <v>1.066522</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>100000</v>
       </c>
@@ -2818,7 +3685,7 @@
         <v>1.066827</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>100000</v>
       </c>
@@ -2895,7 +3762,7 @@
         <v>1.0686199999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>100000</v>
       </c>
@@ -2987,7 +3854,7 @@
         <v>1.0498749999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>30</v>
       </c>
@@ -3117,7 +3984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="6:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:36" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>30</v>
       </c>
@@ -3200,7 +4067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="6:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:36" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>30</v>
       </c>
@@ -3283,7 +4150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:36" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>30</v>
       </c>
@@ -3372,7 +4239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="6:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:36" x14ac:dyDescent="0.25">
       <c r="AJ20" t="s">
         <v>3</v>
       </c>
@@ -3386,25 +4253,25 @@
     <mergeCell ref="AB3:AF3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AH15" r:id="rId1"/>
-    <hyperlink ref="AH16:AH19" r:id="rId2" display="\\"/>
+    <hyperlink ref="AH15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="AH16:AH19" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B5:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>0</v>
       </c>
@@ -3469,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -3543,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +4478,7 @@
         <v>0.99981399999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>33</v>
       </c>
@@ -3682,7 +4549,7 @@
         <v>0.99883</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>37</v>
       </c>
@@ -3750,7 +4617,7 @@
         <v>0.99780599999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -3821,7 +4688,7 @@
         <v>0.91461999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -3889,7 +4756,7 @@
         <v>0.87489499999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -3963,7 +4830,7 @@
         <v>0.99982000000000004</v>
       </c>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>37</v>
       </c>
@@ -4031,7 +4898,7 @@
         <v>0.99981399999999998</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -4102,7 +4969,7 @@
         <v>0.98748000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -4170,7 +5037,7 @@
         <v>0.98760599999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -4241,7 +5108,7 @@
         <v>0.87458000000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>37</v>
       </c>
@@ -4314,17 +5181,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4332,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -4340,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -4348,7 +5215,7 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4356,7 +5223,7 @@
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4364,7 +5231,7 @@
         <v>1.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4372,7 +5239,7 @@
         <v>4.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4380,7 +5247,7 @@
         <v>1.2016000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4388,7 +5255,7 @@
         <v>2.6866000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4396,7 +5263,7 @@
         <v>5.1728000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4404,7 +5271,7 @@
         <v>8.8322999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4412,7 +5279,7 @@
         <v>0.13741200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4420,7 +5287,7 @@
         <v>0.19964999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4428,7 +5295,7 @@
         <v>0.27320499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4436,7 +5303,7 @@
         <v>0.35660799999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4444,7 +5311,7 @@
         <v>0.44647999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4452,7 +5319,7 @@
         <v>0.539852</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4460,7 +5327,7 @@
         <v>0.63233099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -4468,7 +5335,7 @@
         <v>0.72029399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -4476,7 +5343,7 @@
         <v>0.79883700000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -4484,7 +5351,7 @@
         <v>0.86436400000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>

--- a/K-RRT/excel/setting_KRRT.xlsx
+++ b/K-RRT/excel/setting_KRRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\IRDBR\K-RRT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EEFDE-894E-4DF4-B7F0-BC8ABA5E4A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581CF70-56A5-4D0C-8DD9-F9B9406A4D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,15 +417,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,7 +698,7 @@
   <dimension ref="B3:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="K12">
         <v>500</v>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="M12">
         <f t="shared" ref="M12:M13" si="10">L12*J12</f>
-        <v>61.44</v>
+        <v>1259.52</v>
       </c>
       <c r="N12">
         <f>(L12*8)/(H12+I12)</f>
@@ -1119,7 +1119,7 @@
         <v>50</v>
       </c>
       <c r="J13">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <v>500</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="10"/>
-        <v>153.60000000000002</v>
+        <v>675.84</v>
       </c>
       <c r="N13">
         <f t="shared" ref="N13:N17" si="11">(L13*8)/(H13+I13)</f>
@@ -1171,7 +1171,7 @@
         <v>60</v>
       </c>
       <c r="J14">
-        <v>0.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K14">
         <v>500</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="M14">
         <f>L14*J14</f>
-        <v>30.72</v>
+        <v>430.08000000000004</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
@@ -1223,7 +1223,7 @@
         <v>40</v>
       </c>
       <c r="J15">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
         <v>500</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M17" si="15">L15*J15</f>
-        <v>61.44</v>
+        <v>768</v>
       </c>
       <c r="N15">
         <f t="shared" si="11"/>
@@ -1275,7 +1275,7 @@
         <v>60</v>
       </c>
       <c r="J16">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="K16">
         <v>500</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="15"/>
-        <v>30.72</v>
+        <v>337.92</v>
       </c>
       <c r="N16">
         <f t="shared" si="11"/>
@@ -1351,7 +1351,7 @@
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M18">
         <f>AVERAGE(M12:M16)</f>
-        <v>67.584000000000017</v>
+        <v>694.27200000000005</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
   <dimension ref="B3:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/K-RRT/excel/setting_KRRT.xlsx
+++ b/K-RRT/excel/setting_KRRT.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\IRDBR\K-RRT\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\K-RRT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581CF70-56A5-4D0C-8DD9-F9B9406A4D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604950A4-AC6D-46DF-AFD8-A6F52221909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new_setting" sheetId="7" r:id="rId2"/>
-    <sheet name="no_price" sheetId="2" r:id="rId3"/>
-    <sheet name="price" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="tl" sheetId="5" r:id="rId6"/>
+    <sheet name="setting_forsmall" sheetId="8" r:id="rId2"/>
+    <sheet name="new_setting" sheetId="7" r:id="rId3"/>
+    <sheet name="no_price" sheetId="2" r:id="rId4"/>
+    <sheet name="price" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="tl" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="result_noprice" localSheetId="2">no_price!$C$14:$AE$18</definedName>
-    <definedName name="result_noprice_1" localSheetId="2">no_price!$C$20:$AE$25</definedName>
-    <definedName name="result_price" localSheetId="2">no_price!$C$6:$AE$9</definedName>
-    <definedName name="result_price" localSheetId="3">price!$D$5:$AF$8</definedName>
+    <definedName name="result_noprice" localSheetId="3">no_price!$C$14:$AE$18</definedName>
+    <definedName name="result_noprice_1" localSheetId="3">no_price!$C$20:$AE$25</definedName>
+    <definedName name="result_price" localSheetId="3">no_price!$C$6:$AE$9</definedName>
+    <definedName name="result_price" localSheetId="4">price!$D$5:$AF$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -175,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="48">
   <si>
     <t>AP1</t>
   </si>
@@ -697,19 +707,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -750,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -799,7 +809,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -848,7 +858,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -897,7 +907,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -946,7 +956,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1039,7 +1049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>47</v>
       </c>
@@ -1348,13 +1358,13 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M18">
         <f>AVERAGE(M12:M16)</f>
         <v>694.27200000000005</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>48.666666666666664</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1480,7 @@
         <v>61.833333333333336</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>39.166666666666664</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>59.666666666666664</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -1566,6 +1576,590 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3911562E-8482-4E58-B2E4-D9FE6FE6ED89}">
+  <dimension ref="B4:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="0">1/P5</f>
+        <v>3.75</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="1">E5/F5</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>0.41</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M6" si="2">L5*J5</f>
+        <v>102.5</v>
+      </c>
+      <c r="N5">
+        <f>(L5*8)/(H5+I5)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f>(O5*8)/(H5+I5)</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>0.22</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">(L6*8)/(H6+I6)</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P10" si="4">(O6*8)/(H6+I6)</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>1/P7</f>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>E7/F7</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <f>L7*J7</f>
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F10" si="5">1/P8</f>
+        <v>3.75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G10" si="6">E8/F8</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M10" si="7">L8*J8</f>
+        <v>62.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>0.11</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>27.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>1.5625</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <f>AVERAGE(M5:M9)</f>
+        <v>56.5</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGE(N5:N10)</f>
+        <v>37.539682539682538</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>60.5</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <f>((E13*H13)+(F13*I13)+(G13*J13))/(H13+I13+J13)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K18" si="8">((E14*H14)+(F14*I14)+(G14*J14))/(H14+I14+J14)</f>
+        <v>48.666666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>61.833333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2.5</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>39.166666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>59.666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D933FD4B-5259-4884-AA5C-17A8B46C56F1}">
   <dimension ref="B3:P25"/>
   <sheetViews>
@@ -1573,9 +2167,9 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +2210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +2259,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +2308,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +2357,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1812,7 +2406,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +2455,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1905,7 +2499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1957,7 +2551,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -2009,7 +2603,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4</v>
       </c>
@@ -2061,7 +2655,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -2113,7 +2707,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
@@ -2165,7 +2759,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>47</v>
       </c>
@@ -2214,13 +2808,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M18">
         <f>AVERAGE(M12:M16)</f>
         <v>67.584000000000017</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -2306,7 +2900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -2336,7 +2930,7 @@
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2960,7 @@
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2990,7 @@
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -2431,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:AF24"/>
   <sheetViews>
@@ -2439,38 +3033,38 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="7.7109375" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="23" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="6.44140625" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" customWidth="1"/>
-    <col min="27" max="27" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="27" width="6.44140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2512,7 +3106,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2604,7 +3198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>100000</v>
       </c>
@@ -2693,7 +3287,7 @@
         <v>1.152547</v>
       </c>
     </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>100000</v>
       </c>
@@ -2782,7 +3376,7 @@
         <v>1.066522</v>
       </c>
     </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>100000</v>
       </c>
@@ -2871,7 +3465,7 @@
         <v>1.066827</v>
       </c>
     </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>100000</v>
       </c>
@@ -2960,7 +3554,7 @@
         <v>1.0686199999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
       <c r="M10">
         <v>7.5</v>
       </c>
@@ -2968,7 +3562,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -3042,7 +3636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>28</v>
       </c>
@@ -3117,7 +3711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>28</v>
       </c>
@@ -3267,42 +3861,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:30" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="U17" s="1"/>
       <c r="X17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="20" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="18:30" x14ac:dyDescent="0.3">
       <c r="R20" s="1"/>
       <c r="U20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="18:30" x14ac:dyDescent="0.3">
       <c r="R21" s="1"/>
       <c r="U21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="18:30" x14ac:dyDescent="0.3">
       <c r="R22" s="1"/>
       <c r="U22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:30" x14ac:dyDescent="0.3">
       <c r="R23" s="1"/>
       <c r="U23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:30" x14ac:dyDescent="0.3">
       <c r="R24" s="1"/>
       <c r="U24" s="1"/>
       <c r="X24" s="1"/>
@@ -3325,7 +3919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AJ20"/>
   <sheetViews>
@@ -3333,36 +3927,36 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="14" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="14" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
     <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7" hidden="1" customWidth="1"/>
     <col min="25" max="26" width="7" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="6.88671875" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3404,7 +3998,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3496,7 +4090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>100000</v>
       </c>
@@ -3543,7 +4137,7 @@
         <v>1.152547</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3608,7 +4202,7 @@
         <v>1.066522</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>100000</v>
       </c>
@@ -3685,7 +4279,7 @@
         <v>1.066827</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>100000</v>
       </c>
@@ -3762,7 +4356,7 @@
         <v>1.0686199999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>100000</v>
       </c>
@@ -3854,7 +4448,7 @@
         <v>1.0498749999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>30</v>
       </c>
@@ -3916,7 +4510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>30</v>
       </c>
@@ -3984,7 +4578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:36" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>30</v>
       </c>
@@ -4067,7 +4661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:36" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>30</v>
       </c>
@@ -4150,7 +4744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:36" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>30</v>
       </c>
@@ -4239,7 +4833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:36" x14ac:dyDescent="0.3">
       <c r="AJ20" t="s">
         <v>3</v>
       </c>
@@ -4261,7 +4855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B5:Y21"/>
   <sheetViews>
@@ -4269,9 +4863,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>0</v>
       </c>
@@ -4336,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -4410,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +5072,7 @@
         <v>0.99981399999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>33</v>
       </c>
@@ -4549,7 +5143,7 @@
         <v>0.99883</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>37</v>
       </c>
@@ -4617,7 +5211,7 @@
         <v>0.99780599999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -4688,7 +5282,7 @@
         <v>0.91461999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -4756,7 +5350,7 @@
         <v>0.87489499999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -4830,7 +5424,7 @@
         <v>0.99982000000000004</v>
       </c>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>37</v>
       </c>
@@ -4898,7 +5492,7 @@
         <v>0.99981399999999998</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -4969,7 +5563,7 @@
         <v>0.98748000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -5037,7 +5631,7 @@
         <v>0.98760599999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -5108,7 +5702,7 @@
         <v>0.87458000000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>37</v>
       </c>
@@ -5181,7 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -5189,9 +5783,9 @@
       <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -5199,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5207,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5215,7 +5809,7 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5223,7 +5817,7 @@
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5231,7 +5825,7 @@
         <v>1.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -5239,7 +5833,7 @@
         <v>4.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -5247,7 +5841,7 @@
         <v>1.2016000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -5255,7 +5849,7 @@
         <v>2.6866000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -5263,7 +5857,7 @@
         <v>5.1728000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -5271,7 +5865,7 @@
         <v>8.8322999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5279,7 +5873,7 @@
         <v>0.13741200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -5287,7 +5881,7 @@
         <v>0.19964999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -5295,7 +5889,7 @@
         <v>0.27320499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -5303,7 +5897,7 @@
         <v>0.35660799999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -5311,7 +5905,7 @@
         <v>0.44647999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -5319,7 +5913,7 @@
         <v>0.539852</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -5327,7 +5921,7 @@
         <v>0.63233099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5335,7 +5929,7 @@
         <v>0.72029399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5343,7 +5937,7 @@
         <v>0.79883700000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5351,7 +5945,7 @@
         <v>0.86436400000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>

--- a/K-RRT/excel/setting_KRRT.xlsx
+++ b/K-RRT/excel/setting_KRRT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\K-RRT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604950A4-AC6D-46DF-AFD8-A6F52221909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292A3E3-637A-4CB0-9647-88D2819E6A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,9 @@
     <sheet name="tl" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="result_noprice" localSheetId="3">no_price!$C$14:$AE$18</definedName>
     <definedName name="result_noprice_1" localSheetId="3">no_price!$C$20:$AE$25</definedName>
-    <definedName name="result_price" localSheetId="3">no_price!$C$6:$AE$9</definedName>
     <definedName name="result_price" localSheetId="4">price!$D$5:$AF$8</definedName>
+    <definedName name="result_price_1" localSheetId="3">no_price!$B$6:$AD$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="result_noprice" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="result_noprice1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_noprice.txt" tab="0" comma="1">
       <textFields count="29">
         <textField/>
@@ -82,42 +81,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="result_noprice1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_noprice.txt" tab="0" comma="1">
-      <textFields count="29">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="result_price" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="result_price" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_price.txt" tab="0" comma="1">
       <textFields count="26">
         <textField/>
@@ -149,7 +113,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="result_price2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{558F1D32-E74B-4682-A23C-3D62EB4122C3}" name="result_price1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" sourceFile="C:\Users\user\Desktop\IDBR\K-RRT\result_price.txt" tab="0" comma="1">
       <textFields count="26">
         <textField/>
@@ -185,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="61">
   <si>
     <t>AP1</t>
   </si>
@@ -277,9 +241,6 @@
     <t>\\</t>
   </si>
   <si>
-    <t>\hline</t>
-  </si>
-  <si>
     <t>With price</t>
   </si>
   <si>
@@ -330,13 +291,56 @@
   <si>
     <t>AP</t>
   </si>
+  <si>
+    <t>AP0</t>
+  </si>
+  <si>
+    <t>Money-based</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Deadline: 50</t>
+  </si>
+  <si>
+    <t>Money:120</t>
+  </si>
+  <si>
+    <t>Deadline based</t>
+  </si>
+  <si>
+    <t>Money = 60</t>
+  </si>
+  <si>
+    <t>Money =100</t>
+  </si>
+  <si>
+    <t>Money =120</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>Deadline = 30</t>
+  </si>
+  <si>
+    <t>Deadline = 50</t>
+  </si>
+  <si>
+    <t>Deadline = 100</t>
+  </si>
+  <si>
+    <t>\hline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -397,13 +401,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,19 +433,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price_1" connectionId="3" xr16:uid="{8B8C5390-F113-41A5-A488-0711E2AB7581}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_noprice_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_price" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,7 +710,7 @@
   <dimension ref="B3:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C19" sqref="C19:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1009,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1311,7 +1313,7 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1363,31 +1365,35 @@
         <f>AVERAGE(M12:M16)</f>
         <v>694.27200000000005</v>
       </c>
+      <c r="N18">
+        <f>AVERAGE(N12:N17)</f>
+        <v>461.28761904761905</v>
+      </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>43</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
@@ -1542,7 +1548,7 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -1577,17 +1583,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3911562E-8482-4E58-B2E4-D9FE6FE6ED89}">
-  <dimension ref="B4:P18"/>
+  <dimension ref="B4:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1735,7 +1744,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1744,24 +1753,24 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f>1/P7</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="G7">
         <f>E7/F7</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
       <c r="I7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -1771,23 +1780,23 @@
       </c>
       <c r="M7">
         <f>L7*J7</f>
-        <v>35</v>
+        <v>62.5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f>(L7*8)/(H7+I7)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>(O7*8)/(H7+I7)</f>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1796,24 +1805,24 @@
         <v>3</v>
       </c>
       <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f>1/P8</f>
         <v>5</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F10" si="5">1/P8</f>
-        <v>3.75</v>
-      </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="6">E8/F8</f>
-        <v>1.3333333333333333</v>
+        <f>E8/F8</f>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -1822,19 +1831,19 @@
         <v>250</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M10" si="7">L8*J8</f>
-        <v>62.5</v>
+        <f>L8*J8</f>
+        <v>35</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <f>(L8*8)/(H8+I8)</f>
+        <v>25</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
-        <v>0.26666666666666666</v>
+        <f>(O8*8)/(H8+I8)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -1851,11 +1860,11 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F9:F10" si="5">1/P9</f>
         <v>5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G9:G10" si="6">E9/F9</f>
         <v>3</v>
       </c>
       <c r="H9">
@@ -1874,7 +1883,7 @@
         <v>250</v>
       </c>
       <c r="M9">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M9:M10" si="7">L9*J9</f>
         <v>27.5</v>
       </c>
       <c r="N9">
@@ -1891,7 +1900,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1953,25 +1962,25 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>43</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
@@ -2094,7 +2103,7 @@
         <v>39.166666666666664</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -2124,9 +2133,9 @@
         <v>59.666666666666664</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2151,6 +2160,565 @@
       </c>
       <c r="K18">
         <f t="shared" si="8"/>
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F22" si="9">1/P21</f>
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G22" si="10">E21/F21</f>
+        <v>0.8</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>0.41</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M22" si="11">L21*J21</f>
+        <v>102.5</v>
+      </c>
+      <c r="N21">
+        <f>(L21*8)/(H21+I21)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f>(O21*8)/(I21)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>3.125</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>1.28</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>0.22</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>250</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22" si="12">(L22*8)/(H22+I22)</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P26" si="13">(O22*8)/(I22)</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f>1/P23</f>
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <f>E23/F23</f>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>0.25</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23">
+        <f>L23*J23</f>
+        <v>62.5</v>
+      </c>
+      <c r="N23">
+        <f>(L23*8)/(H23+I23)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f>1/P24</f>
+        <v>3.75</v>
+      </c>
+      <c r="G24">
+        <f>E24/F24</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24">
+        <f>L24*J24</f>
+        <v>35</v>
+      </c>
+      <c r="N24">
+        <f>(L24*8)/(H24+I24)</f>
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="13"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F26" si="14">1/P25</f>
+        <v>3.75</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G26" si="15">E25/F25</f>
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>0.11</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M26" si="16">L25*J25</f>
+        <v>27.5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N26" si="17">(L25*8)/(H25+I25)</f>
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="14"/>
+        <v>0.3125</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>250</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>60.5</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <f>((D30*G30)+(E30*H30)+(F30*I30))/(G30+H30+I30)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J35" si="18">((D31*G31)+(E31*H31)+(F31*I31))/(G31+H31+I31)</f>
+        <v>48.666666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>2.5</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <f>((D32*G32)+(E32*H32)+(F32*I32))/(G32+H32+I32)</f>
+        <v>39.166666666666664</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>85</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="I33">
+        <v>200</v>
+      </c>
+      <c r="J33">
+        <f>((D33*G33)+(E33*H33)+(F33*I33))/(G33+H33+I33)</f>
+        <v>61.833333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>99</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="18"/>
+        <v>59.666666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35">
+        <v>500</v>
+      </c>
+      <c r="I35">
+        <v>500</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="18"/>
         <v>4.833333333333333</v>
       </c>
     </row>
@@ -2164,7 +2732,7 @@
   <dimension ref="B3:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,7 +3025,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -2761,7 +3329,7 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2819,25 +3387,25 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>43</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
@@ -2992,7 +3560,7 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -3027,975 +3595,1220 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:AF24"/>
+  <dimension ref="B4:AE25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="6.44140625" customWidth="1"/>
-    <col min="22" max="23" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="24" width="9.21875" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
     <col min="26" max="26" width="7.6640625" customWidth="1"/>
-    <col min="27" max="27" width="6.44140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.77734375" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" customWidth="1"/>
     <col min="29" max="29" width="13.6640625" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6" t="s">
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="3"/>
-    </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>100000</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.6966</v>
+      </c>
+      <c r="J6" s="1">
+        <f>(H6-I6)/I6</f>
+        <v>-8.6132644272185607E-4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="M6">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.2379</v>
+      </c>
+      <c r="O6" s="1">
+        <f>(M6-N6)/N6</f>
+        <v>5.8848255569567565E-3</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="J6">
-        <v>0.54549999999999998</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7.6170000000000003E-4</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>7.5</v>
-      </c>
-      <c r="N6">
-        <v>0.2349</v>
-      </c>
-      <c r="O6">
-        <v>0.23549999999999999</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.8091600000000002E-3</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f>(R6-S6)/S6</f>
+        <v>-1.1784511784511771E-2</v>
+      </c>
+      <c r="U6">
         <v>10</v>
       </c>
-      <c r="R6">
-        <v>17.5</v>
-      </c>
-      <c r="S6">
-        <v>0.1085</v>
-      </c>
-      <c r="T6">
-        <v>0.109</v>
-      </c>
-      <c r="U6" s="1">
-        <v>5.08326E-3</v>
-      </c>
       <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>7.5</v>
+        <v>3.75</v>
+      </c>
+      <c r="W6" s="4">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="X6">
-        <v>0.1106</v>
-      </c>
-      <c r="Y6">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>7.01507E-3</v>
-      </c>
-      <c r="AA6">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>(W6-X6)/X6</f>
+        <v>-1.6949152542372926E-2</v>
+      </c>
+      <c r="Z6">
         <v>15</v>
       </c>
+      <c r="AA6" s="4">
+        <v>3.75</v>
+      </c>
       <c r="AB6">
-        <v>10</v>
+        <v>1E-4</v>
       </c>
       <c r="AC6">
         <v>1E-4</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
+        <f>(AB6-AC6)/AC6</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.63442299999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7:J9" si="0">(H7-I7)/I7</f>
+        <v>-3.3188664794484755E-3</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="M7">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7:O9" si="1">(M7-N7)/N7</f>
+        <v>5.7172557172558095E-3</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7:T9" si="2">(R7-S7)/S7</f>
+        <v>5.932203389830517E-2</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>3.75</v>
+      </c>
+      <c r="W7" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="X7" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7:Y9" si="3">(W7-X7)/X7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1.448027</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>100000</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3937761819269919E-3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="M8">
+        <v>0.1527</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.1010362694300562E-2</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R8" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000052E-2</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>3.75</v>
+      </c>
+      <c r="W8" s="4">
         <v>1E-4</v>
       </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>1.152547</v>
-      </c>
-    </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="X8" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="5">
+        <v>2.2685369999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>100000</v>
       </c>
-      <c r="D7">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.872</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0331764435771002E-3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="M9">
+        <v>0.1234</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.1244</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.0385852090032236E-3</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R9" s="4">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="S9">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5454545454545373E-2</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>3.75</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="5">
+        <v>3.0816569999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>100000</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="J7">
-        <v>0.60809999999999997</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.22931E-3</v>
-      </c>
-      <c r="L7">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>7.5</v>
-      </c>
-      <c r="N7">
-        <v>0.22059999999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.22070000000000001</v>
-      </c>
-      <c r="P7" s="1">
-        <v>7.5391E-4</v>
-      </c>
-      <c r="Q7">
+      <c r="G13">
         <v>10</v>
-      </c>
-      <c r="R7">
-        <v>17.5</v>
-      </c>
-      <c r="S7">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="T7">
-        <v>9.5799999999999996E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1.0511029999999999E-2</v>
-      </c>
-      <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <v>7.5</v>
-      </c>
-      <c r="X7">
-        <v>7.5300000000000006E-2</v>
-      </c>
-      <c r="Y7">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1.22262E-3</v>
-      </c>
-      <c r="AA7">
-        <v>15</v>
-      </c>
-      <c r="AB7">
-        <v>10</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1.066522</v>
-      </c>
-    </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>100000</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>0.65610000000000002</v>
-      </c>
-      <c r="J8">
-        <v>0.6573</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.73339E-3</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>7.5</v>
-      </c>
-      <c r="N8">
-        <v>0.20780000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>9.7439699999999994E-3</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>17.5</v>
-      </c>
-      <c r="S8">
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="T8">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <v>3.9467800000000004E-3</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <v>7.5</v>
-      </c>
-      <c r="X8">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="Y8">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>9.9542299999999997E-3</v>
-      </c>
-      <c r="AA8">
-        <v>15</v>
-      </c>
-      <c r="AB8">
-        <v>10</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>1.066827</v>
-      </c>
-    </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>100000</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="J9">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4.6878000000000002E-4</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>7.5</v>
-      </c>
-      <c r="N9">
-        <v>0.1913</v>
-      </c>
-      <c r="O9">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.2526499999999999E-3</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>17.5</v>
-      </c>
-      <c r="S9">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="T9">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="U9" s="1">
-        <v>7.3623899999999999E-3</v>
-      </c>
-      <c r="V9">
-        <v>5</v>
-      </c>
-      <c r="W9">
-        <v>7.5</v>
-      </c>
-      <c r="X9">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="Y9">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>1.0548300000000001E-3</v>
-      </c>
-      <c r="AA9">
-        <v>15</v>
-      </c>
-      <c r="AB9">
-        <v>10</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1.0686199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="M10">
-        <v>7.5</v>
-      </c>
-      <c r="R10">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" s="4">
-        <v>0.54600000000000004</v>
+        <v>15</v>
       </c>
       <c r="J13" s="4">
-        <v>0.54549999999999998</v>
-      </c>
-      <c r="K13" s="1">
-        <v>7.6170000000000003E-4</v>
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3.125</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N13" s="4">
-        <v>0.2349</v>
+        <v>3.75</v>
       </c>
       <c r="O13" s="4">
-        <v>0.23549999999999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2.8091600000000002E-3</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.6966</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>8.2558000000000002E-4</v>
       </c>
       <c r="R13">
-        <v>17.5</v>
+        <v>0.23930000000000001</v>
       </c>
       <c r="S13" s="4">
-        <v>0.1085</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0.109</v>
-      </c>
-      <c r="U13" s="1">
-        <v>5.08326E-3</v>
+        <v>0.2379</v>
+      </c>
+      <c r="T13" s="7">
+        <v>5.8981600000000004E-3</v>
+      </c>
+      <c r="U13" s="4">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="V13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>2.5343009999999999E-2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1.108018E-2</v>
+      </c>
+      <c r="AA13">
+        <v>1E-4</v>
+      </c>
+      <c r="AB13">
+        <v>1E-4</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.17208175000000001</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0.63442299999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="W13">
-        <v>7.5</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0.1106</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0.10979999999999999</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>7.01507E-3</v>
-      </c>
-      <c r="AC13">
-        <v>1.152547</v>
-      </c>
-      <c r="AD13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>28</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
       <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>3.75</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.2052500000000002E-3</v>
+      </c>
+      <c r="R14">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="T14" s="7">
+        <v>5.6357200000000003E-3</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>5.0966810000000001E-2</v>
+      </c>
+      <c r="X14" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.32591087000000002</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1.448027</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="I14" s="4">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.60809999999999997</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.22931E-3</v>
-      </c>
-      <c r="L14">
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L15">
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <v>3.75</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2.3819700000000002E-3</v>
+      </c>
+      <c r="R15">
+        <v>0.1527</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1.1210680000000001E-2</v>
+      </c>
+      <c r="U15" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="V15">
+        <v>0.01</v>
+      </c>
+      <c r="W15" s="1">
+        <v>2.3865170000000002E-2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.22506245</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>2.2685369999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>100000</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="M14">
-        <v>7.5</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.22059999999999999</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.22070000000000001</v>
-      </c>
-      <c r="P14" s="1">
-        <v>7.5391E-4</v>
-      </c>
-      <c r="Q14">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="R14">
-        <v>17.5</v>
-      </c>
-      <c r="S14" s="4">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="T14" s="4">
-        <v>9.5799999999999996E-2</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1.0511029999999999E-2</v>
-      </c>
-      <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <v>7.5</v>
-      </c>
-      <c r="X14" s="4">
-        <v>7.5300000000000006E-2</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>1.22262E-3</v>
-      </c>
-      <c r="AA14" s="1"/>
-      <c r="AC14">
-        <v>1.066522</v>
-      </c>
-      <c r="AD14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.65610000000000002</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.6573</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.73339E-3</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>7.5</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.20780000000000001</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="P15" s="1">
-        <v>9.7439699999999994E-3</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-      <c r="R15">
-        <v>17.5</v>
-      </c>
-      <c r="S15" s="4">
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="T15" s="4">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="U15" s="1">
-        <v>3.9467800000000004E-3</v>
-      </c>
-      <c r="V15">
-        <v>5</v>
-      </c>
-      <c r="W15">
-        <v>7.5</v>
-      </c>
-      <c r="X15" s="4">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>9.9542299999999997E-3</v>
-      </c>
-      <c r="AA15" s="1"/>
-      <c r="AC15">
-        <v>1.066827</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
       <c r="I16" s="4">
-        <v>0.69679999999999997</v>
+        <v>15</v>
       </c>
       <c r="J16" s="4">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="K16" s="1">
-        <v>4.6878000000000002E-4</v>
+        <v>2.5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.125</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M16">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N16" s="4">
-        <v>0.1913</v>
+        <v>3.75</v>
       </c>
       <c r="O16" s="4">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1.2526499999999999E-3</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
+        <v>0.872</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.03367E-3</v>
       </c>
       <c r="R16">
-        <v>17.5</v>
+        <v>0.1234</v>
       </c>
       <c r="S16" s="4">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="T16" s="4">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="U16" s="1">
-        <v>7.3623899999999999E-3</v>
+        <v>0.1244</v>
+      </c>
+      <c r="T16" s="7">
+        <v>8.2883499999999999E-3</v>
+      </c>
+      <c r="U16" s="4">
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>7.5</v>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>3.2376910000000002E-2</v>
       </c>
       <c r="X16" s="4">
-        <v>4.0099999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>1.0548300000000001E-3</v>
-      </c>
-      <c r="AA16" s="1"/>
-      <c r="AC16">
-        <v>1.0686199999999999</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="18:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>3.0816569999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="9:30" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="U17" s="1"/>
       <c r="X17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="20" spans="18:30" x14ac:dyDescent="0.3">
-      <c r="R20" s="1"/>
+    <row r="18" spans="9:30" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="20" spans="9:30" x14ac:dyDescent="0.3">
+      <c r="I20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.6966</v>
+      </c>
+      <c r="L20" s="1">
+        <f>(J20-K20)/K20</f>
+        <v>-8.6132644272185607E-4</v>
+      </c>
+      <c r="M20">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.2379</v>
+      </c>
+      <c r="O20" s="1">
+        <f>(M20-N20)/N20</f>
+        <v>5.8848255569567565E-3</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <f>(P20-Q20)/Q20</f>
+        <v>-1.1784511784511771E-2</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.63442299999999996</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="18:30" x14ac:dyDescent="0.3">
-      <c r="R21" s="1"/>
+    <row r="21" spans="9:30" x14ac:dyDescent="0.3">
+      <c r="I21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ref="L21:L23" si="4">(J21-K21)/K21</f>
+        <v>-3.3188664794484755E-3</v>
+      </c>
+      <c r="M21">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:O23" si="5">(M21-N21)/N21</f>
+        <v>5.7172557172558095E-3</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q21">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" ref="R21:R23" si="6">(P21-Q21)/Q21</f>
+        <v>5.932203389830517E-2</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1.448027</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="18:30" x14ac:dyDescent="0.3">
-      <c r="R22" s="1"/>
+    <row r="22" spans="9:30" x14ac:dyDescent="0.3">
+      <c r="I22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3937761819269919E-3</v>
+      </c>
+      <c r="M22">
+        <v>0.1527</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.1010362694300562E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.0000000000000052E-2</v>
+      </c>
+      <c r="S22" s="5">
+        <v>2.2685369999999998</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="18:30" x14ac:dyDescent="0.3">
-      <c r="R23" s="1"/>
+    <row r="23" spans="9:30" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.872</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0331764435771002E-3</v>
+      </c>
+      <c r="M23">
+        <v>0.1234</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.1244</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.0385852090032236E-3</v>
+      </c>
+      <c r="P23" s="4">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="Q23">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5454545454545373E-2</v>
+      </c>
+      <c r="S23" s="5">
+        <v>3.0816569999999999</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="18:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:30" x14ac:dyDescent="0.3">
       <c r="R24" s="1"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="1"/>
       <c r="X24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
+    <row r="25" spans="9:30" x14ac:dyDescent="0.3">
+      <c r="T25" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Z4:AD4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AD13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="AD14:AD16" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="T20" r:id="rId1" xr:uid="{5B998E1B-8229-4ACE-A6DE-CE99D99DE470}"/>
+    <hyperlink ref="T21:T25" r:id="rId2" display="\\" xr:uid="{26C4E277-0DC9-4A20-B84B-6FB29CE39F85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:AJ20"/>
+  <dimension ref="B3:AM51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
     <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="14" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="14" width="7.33203125" customWidth="1"/>
     <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
     <col min="20" max="20" width="9.109375" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="6.88671875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="8.5546875" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
+      <c r="H3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
@@ -4095,46 +4908,74 @@
         <v>100000</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3.125</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>(O5-P5)/P5</f>
+        <v>-4.0461258345141305E-4</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="K5">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.026E-5</v>
-      </c>
+      <c r="S5">
+        <v>2.5</v>
+      </c>
+      <c r="V5" s="1"/>
       <c r="W5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>7.5</v>
-      </c>
-      <c r="Y5">
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>0.12559999999999999</v>
+        <v>3.75</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1.18E-2</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.1439999999999994E-5</v>
-      </c>
-      <c r="AG5">
-        <v>1.152547</v>
+        <f>(Y5-Z5)/Z5</f>
+        <v>4.424778761061951E-2</v>
+      </c>
+      <c r="AB5">
+        <v>15</v>
+      </c>
+      <c r="AC5">
+        <v>3.75</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>3.8330739999999999</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
@@ -4145,61 +4986,83 @@
         <v>100000</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0.69989999999999997</v>
-      </c>
-      <c r="K6">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4.19572E-3</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>7.5</v>
+        <v>3.125</v>
       </c>
       <c r="O6">
-        <v>0.2329</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="P6">
-        <v>0.2351</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.2711300000000007E-3</v>
+        <f t="shared" ref="Q6:Q7" si="0">(O6-P6)/P6</f>
+        <v>5.7286892758930444E-4</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>2.5</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.1208</v>
+      </c>
+      <c r="U6">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" ref="V6:V7" si="1">(T6-U6)/U6</f>
+        <v>-4.1220115416323198E-3</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X6">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y6">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="Z6">
-        <v>6.7900000000000002E-2</v>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.09674E-2</v>
-      </c>
-      <c r="AG6">
-        <v>1.066522</v>
+        <f t="shared" ref="AA6:AA7" si="2">(Y6-Z6)/Z6</f>
+        <v>-3.3333333333333423E-2</v>
+      </c>
+      <c r="AB6">
+        <v>15</v>
+      </c>
+      <c r="AC6">
+        <v>3.75</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>3.7261709999999999</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
@@ -4207,651 +5070,1593 @@
         <v>100000</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="K7">
-        <v>0.69699999999999995</v>
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.83550000000000002</v>
       </c>
       <c r="L7" s="1">
-        <v>3.0767000000000001E-4</v>
+        <f t="shared" ref="L7" si="3">(J7-K7)/K7</f>
+        <v>2.2740873728306554E-3</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7">
-        <v>7.5</v>
+        <v>3.125</v>
       </c>
       <c r="O7">
-        <v>0.2351</v>
+        <v>0.1525</v>
       </c>
       <c r="P7">
-        <v>0.2351</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.1482000000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>-1.2305699481865367E-2</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>2.5</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>7.5</v>
-      </c>
-      <c r="Y7">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="Z7">
-        <v>6.7900000000000002E-2</v>
+        <v>3.75</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1E-4</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.8992100000000002E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>15</v>
       </c>
       <c r="AC7">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1.066827</v>
+        <v>3.75</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="4">
+        <v>2.2636400000000001</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>100000</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>300</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="K8">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7.9699999999999999E-6</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>7.5</v>
-      </c>
-      <c r="O8">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="P8">
-        <v>0.2351</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>3.7879300000000001E-3</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-      <c r="X8">
-        <v>7.5</v>
-      </c>
-      <c r="Y8">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="Z8">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>1.302829E-2</v>
-      </c>
-      <c r="AB8">
-        <v>15</v>
-      </c>
-      <c r="AC8">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1.0686199999999999</v>
-      </c>
+      <c r="L8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>100000</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>350</v>
-      </c>
-      <c r="H9">
+      <c r="L9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(L10-M10)/M10</f>
+        <v>-4.0461258345141305E-4</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3.8330739999999999</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N12" si="4">(L11-M11)/M11</f>
+        <v>5.7286892758930444E-4</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.1208</v>
+      </c>
+      <c r="P11">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q12" si="5">(O11-P11)/P11</f>
+        <v>-4.1220115416323198E-3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>3.7261709999999999</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>120</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12" si="6">(I12-J12)/J12</f>
+        <v>2.2740873728306554E-3</v>
+      </c>
+      <c r="L12">
+        <v>0.1525</v>
+      </c>
+      <c r="M12">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2305699481865367E-2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2.2636400000000001</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>100000</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>250</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M15">
+        <v>3.75</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4.7639999999999998E-4</v>
+      </c>
+      <c r="S15" t="s">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="T15" s="4">
+        <v>1.18E-2</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4.1876480000000001E-2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.17030240999999999</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>3.8330739999999999</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="5"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>100000</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>250</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.6573</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.6421000000000001E-3</v>
-      </c>
-      <c r="M9">
+      <c r="K16" s="4">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>3.125</v>
+      </c>
+      <c r="N16">
+        <v>2.5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="S16">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="T16" s="4">
+        <v>6.4869999999999999E-4</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0.1208</v>
+      </c>
+      <c r="W16">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3.5779700000000002E-3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2.30917E-2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1.1375889699999999</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>3.7261709999999999</v>
+      </c>
+      <c r="AH16" s="5"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>100000</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
         <v>4</v>
       </c>
-      <c r="N9">
-        <v>7.5</v>
-      </c>
-      <c r="O9">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="P9">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2.1643299999999999E-3</v>
-      </c>
-      <c r="R9">
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
         <v>10</v>
       </c>
-      <c r="S9">
-        <v>17.5</v>
-      </c>
-      <c r="T9">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="U9">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="V9" s="1">
-        <v>7.6260000000000005E-5</v>
-      </c>
-      <c r="W9">
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>2.5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="R17">
+        <v>3.75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.2144E-3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0.1525</v>
+      </c>
+      <c r="Y17">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.2311849999999999E-2</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0.01</v>
+      </c>
+      <c r="AC17">
+        <v>0.01</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>3.08334E-3</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0.21775901</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>2.2636400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="1"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="1"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="5"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="1"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="5"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.8659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="K25">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="L25">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="L27">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="L28">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X9">
-        <v>7.5</v>
-      </c>
-      <c r="Y9">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="Z9">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>1.1805019999999999E-2</v>
-      </c>
-      <c r="AB9">
+      <c r="G31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>100000</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2.5</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>3.125</v>
+      </c>
+      <c r="O32">
+        <v>0.9879</v>
+      </c>
+      <c r="P32">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>(O32-P32)/P32</f>
+        <v>-7.080720210398886E-4</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>2.5</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>3.75</v>
+      </c>
+      <c r="Y32">
+        <v>1.21E-2</v>
+      </c>
+      <c r="Z32">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="AA32" s="1">
+        <f>(Y32-Z32)/Z32</f>
+        <v>7.0796460176991191E-2</v>
+      </c>
+      <c r="AB32">
         <v>15</v>
       </c>
-      <c r="AC9">
+      <c r="AC32">
+        <v>3.75</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>3.838625</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2.5</v>
+      </c>
+      <c r="J33">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="K33">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="L33" s="1">
+        <f>(J33-K33)/K33</f>
+        <v>-1.3165769000598323E-3</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>3.125</v>
+      </c>
+      <c r="O33">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="P33">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>(O33-P33)/P33</f>
+        <v>9.7150259067357598E-3</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>2.5</v>
+      </c>
+      <c r="T33" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="V33" s="1">
+        <f>(T33-U33)/U33</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="W33">
         <v>10</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
+      <c r="X33">
+        <v>3.75</v>
+      </c>
+      <c r="Y33">
+        <v>1E-4</v>
+      </c>
+      <c r="Z33">
+        <v>1E-4</v>
+      </c>
+      <c r="AA33" s="1">
+        <f>(Y33-Z33)/Z33</f>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>15</v>
+      </c>
+      <c r="AC33">
+        <v>3.75</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>2.2665890000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>100000</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2.5</v>
+      </c>
+      <c r="J34">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K34">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="L34" s="1">
+        <f>(J34-K34)/K34</f>
+        <v>-5.9844404548181445E-4</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>3.125</v>
+      </c>
+      <c r="O34">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="P34">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>(O34-P34)/P34</f>
+        <v>-6.4766839378249186E-4</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>2.5</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="V34" s="1">
+        <f>(T34-U34)/U34</f>
+        <v>5.9999999999999984E-2</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <v>3.75</v>
+      </c>
+      <c r="Y34">
+        <v>1E-4</v>
+      </c>
+      <c r="Z34">
+        <v>1E-4</v>
+      </c>
+      <c r="AA34" s="1">
+        <f>(Y34-Z34)/Z34</f>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>15</v>
+      </c>
+      <c r="AC34">
+        <v>3.75</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AG34">
+        <v>2.2702979999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>100000</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>120</v>
+      </c>
+      <c r="H39">
+        <v>250</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>3.125</v>
+      </c>
+      <c r="M39">
+        <v>3.75</v>
+      </c>
+      <c r="N39">
+        <v>3.75</v>
+      </c>
+      <c r="O39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.9879</v>
+      </c>
+      <c r="Q39">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="R39" s="1">
+        <v>7.3939000000000003E-4</v>
+      </c>
+      <c r="S39" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>1.21E-2</v>
+      </c>
+      <c r="U39">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="V39" s="1">
+        <v>6.4794240000000003E-2</v>
+      </c>
+      <c r="W39" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0.17030240999999999</v>
+      </c>
+      <c r="AA39">
+        <v>3.838625</v>
+      </c>
+    </row>
+    <row r="40" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>100000</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>120</v>
+      </c>
+      <c r="H40">
+        <v>250</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>3.125</v>
+      </c>
+      <c r="P40">
+        <v>2.5</v>
+      </c>
+      <c r="Q40">
+        <v>3.75</v>
+      </c>
+      <c r="R40">
+        <v>3.75</v>
+      </c>
+      <c r="S40" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="U40">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1.2804699999999999E-3</v>
+      </c>
+      <c r="W40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="Y40">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>1.010028E-2</v>
+      </c>
+      <c r="AA40" t="s">
         <v>1</v>
       </c>
-      <c r="AG9">
-        <v>1.0498749999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
+      <c r="AB40">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="AC40">
+        <v>0.01</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>4.7819399999999998E-2</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF40">
+        <v>1E-4</v>
+      </c>
+      <c r="AG40">
+        <v>1E-4</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0.11435708</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>2.2665890000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>100000</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>120</v>
+      </c>
+      <c r="H41">
+        <v>250</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>2.5</v>
+      </c>
+      <c r="O41">
+        <v>3.125</v>
+      </c>
+      <c r="P41">
+        <v>2.5</v>
+      </c>
+      <c r="Q41">
+        <v>3.75</v>
+      </c>
+      <c r="R41">
+        <v>3.75</v>
+      </c>
+      <c r="S41" t="s">
+        <v>47</v>
+      </c>
+      <c r="T41">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="U41">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="V41" s="1">
+        <v>5.5038000000000005E-4</v>
+      </c>
+      <c r="W41" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>7.1714000000000001E-4</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1.06E-2</v>
+      </c>
+      <c r="AC41">
+        <v>0.01</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>5.4984169999999999E-2</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>1E-4</v>
+      </c>
+      <c r="AG41">
+        <v>1E-4</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0.21775901</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>2.2702979999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="L44">
+        <v>0.86650000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.8659</v>
+      </c>
+      <c r="L45">
+        <v>0.8659</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45">
         <v>30</v>
       </c>
-      <c r="G15">
-        <v>150</v>
-      </c>
-      <c r="H15">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0.9879</v>
+      </c>
+      <c r="U45">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="V45" s="1">
+        <f>(T45-U45)/U45</f>
+        <v>-7.080720210398886E-4</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>3.838625</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46">
+        <v>50</v>
+      </c>
+      <c r="Q46">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="R46">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" ref="S46:S47" si="7">(Q46-R46)/R46</f>
+        <v>-1.3165769000598323E-3</v>
+      </c>
+      <c r="T46">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="U46">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" ref="V46:V47" si="8">(T46-U46)/U46</f>
+        <v>9.7150259067357598E-3</v>
+      </c>
+      <c r="W46" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="X46" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" ref="Y46:Y47" si="9">(W46-X46)/X46</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="Z46">
+        <v>2.2665890000000002</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.1231</v>
+      </c>
+      <c r="L47">
+        <v>0.1222</v>
+      </c>
+      <c r="O47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="R47">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="7"/>
+        <v>-5.9844404548181445E-4</v>
+      </c>
+      <c r="T47">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="U47">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="8"/>
+        <v>-6.4766839378249186E-4</v>
+      </c>
+      <c r="W47" s="4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="X47" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="9"/>
+        <v>5.9999999999999984E-2</v>
+      </c>
+      <c r="Z47">
+        <v>2.2702979999999999</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="K48">
+        <v>0.1226</v>
+      </c>
+      <c r="L48">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1.026E-5</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>5</v>
-      </c>
-      <c r="X15">
-        <v>7.5</v>
-      </c>
-      <c r="Y15">
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="Z15">
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>7.1439999999999994E-5</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>1.152547</v>
-      </c>
-      <c r="AH15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>200</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.69989999999999997</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L16" s="1">
-        <v>4.19572E-3</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>7.5</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.2329</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.2351</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>9.2711300000000007E-3</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>7.5</v>
-      </c>
-      <c r="Y16">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="Z16">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>1.09674E-2</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>1.066522</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="6:36" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>250</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3.0767000000000001E-4</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>7.5</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.2351</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.2351</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2.1482000000000001E-4</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>5</v>
-      </c>
-      <c r="X17">
-        <v>7.5</v>
-      </c>
-      <c r="Y17">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="Z17">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>3.8992100000000002E-3</v>
-      </c>
-      <c r="AB17">
-        <v>15</v>
-      </c>
-      <c r="AC17">
-        <v>10</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>1.066827</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="6:36" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>300</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L18" s="1">
-        <v>7.9699999999999999E-6</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>7.5</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0.2351</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>3.7879300000000001E-3</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>3</v>
-      </c>
-      <c r="W18">
-        <v>5</v>
-      </c>
-      <c r="X18">
-        <v>7.5</v>
-      </c>
-      <c r="Y18">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="Z18">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1.302829E-2</v>
-      </c>
-      <c r="AB18">
-        <v>15</v>
-      </c>
-      <c r="AC18">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>1.0686199999999999</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="6:36" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19">
-        <v>350</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.6573</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1.6421000000000001E-3</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>7.5</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2.1643299999999999E-3</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="S19">
-        <v>17.5</v>
-      </c>
-      <c r="T19">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="U19">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="V19" s="1">
-        <v>7.6260000000000005E-5</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="X19">
-        <v>7.5</v>
-      </c>
-      <c r="Y19">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="Z19">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>1.1805019999999999E-2</v>
-      </c>
-      <c r="AB19">
-        <v>15</v>
-      </c>
-      <c r="AC19">
-        <v>10</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>1.0498749999999999</v>
-      </c>
-      <c r="AH19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="6:36" x14ac:dyDescent="0.3">
-      <c r="AJ20" t="s">
-        <v>3</v>
+      <c r="I50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1.14E-2</v>
+      </c>
+      <c r="L50">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1.15E-2</v>
+      </c>
+      <c r="L51">
+        <v>1.15E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AF30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AH15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="AH16:AH19" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="S10" r:id="rId1" xr:uid="{3F9AAD7D-A74E-4B51-8B91-3D7C981B83F4}"/>
+    <hyperlink ref="S11" r:id="rId2" xr:uid="{BC5BA973-5811-4BB2-A743-B0F96FC522C7}"/>
+    <hyperlink ref="S12" r:id="rId3" xr:uid="{2E5C7FBA-2877-495F-BE9B-45A8EEC0AD2B}"/>
+    <hyperlink ref="AA45" r:id="rId4" xr:uid="{61EE9446-2DF9-4DC6-9C1D-521D982A64EE}"/>
+    <hyperlink ref="AA46" r:id="rId5" xr:uid="{50691C8A-B202-4AAE-80BC-1A72C7904562}"/>
+    <hyperlink ref="AA47" r:id="rId6" xr:uid="{27115568-D093-45F9-8696-CEFABCAADD3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4860,7 +6665,7 @@
   <dimension ref="B5:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4932,13 +6737,13 @@
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5006,7 +6811,7 @@
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5074,10 +6879,10 @@
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5145,7 +6950,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5213,10 +7018,10 @@
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5284,7 +7089,7 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5352,13 +7157,13 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5426,7 +7231,7 @@
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5494,10 +7299,10 @@
     </row>
     <row r="18" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5565,7 +7370,7 @@
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5633,10 +7438,10 @@
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5704,7 +7509,7 @@
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5777,183 +7582,2756 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:AV41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.2120999999999999E-2</v>
+      </c>
+      <c r="C1">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>6.1067000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.7200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3">
+        <v>8.4402000000000005E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.2400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4">
+        <v>0.112113</v>
+      </c>
+      <c r="C4">
+        <v>0.1123</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4">
+        <v>1.2</v>
+      </c>
+      <c r="K4">
+        <v>1.3</v>
+      </c>
+      <c r="L4">
+        <v>1.4</v>
+      </c>
+      <c r="M4">
+        <v>1.5</v>
+      </c>
+      <c r="N4">
+        <v>1.6</v>
+      </c>
+      <c r="O4">
+        <v>1.7</v>
+      </c>
+      <c r="P4">
+        <v>1.8</v>
+      </c>
+      <c r="Q4">
+        <v>1.9</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2.1</v>
+      </c>
+      <c r="T4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V4">
+        <v>2.4</v>
+      </c>
+      <c r="W4">
+        <v>2.5</v>
+      </c>
+      <c r="X4">
+        <v>2.6</v>
+      </c>
+      <c r="Y4">
+        <v>2.7</v>
+      </c>
+      <c r="Z4">
+        <v>2.8</v>
+      </c>
+      <c r="AA4">
+        <v>2.9</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>3.1</v>
+      </c>
+      <c r="AD4">
+        <v>3.2</v>
+      </c>
+      <c r="AE4">
+        <v>3.3</v>
+      </c>
+      <c r="AF4">
+        <v>3.4</v>
+      </c>
+      <c r="AG4">
+        <v>3.5</v>
+      </c>
+      <c r="AH4">
+        <v>3.6</v>
+      </c>
+      <c r="AI4">
+        <v>3.7</v>
+      </c>
+      <c r="AJ4">
+        <v>3.8</v>
+      </c>
+      <c r="AK4">
+        <v>3.9</v>
+      </c>
+      <c r="AL4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN4">
+        <v>4.2</v>
+      </c>
+      <c r="AO4">
+        <v>4.3</v>
+      </c>
+      <c r="AP4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>4.5</v>
+      </c>
+      <c r="AR4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AS4">
+        <v>4.7</v>
+      </c>
+      <c r="AT4">
+        <v>4.8</v>
+      </c>
+      <c r="AU4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5">
+        <v>0.14403099999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>0.17984900000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.18210000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>0.21915100000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.2235</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8">
+        <v>0.261434</v>
+      </c>
+      <c r="C8">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="I8">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="J8">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="K8">
+        <v>1.042E-3</v>
+      </c>
+      <c r="L8">
+        <v>1.9170000000000001E-3</v>
+      </c>
+      <c r="M8">
+        <v>3.32E-3</v>
+      </c>
+      <c r="N8">
+        <v>5.4530000000000004E-3</v>
+      </c>
+      <c r="O8">
+        <v>8.5550000000000001E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.2885000000000001E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.6332999999999999E-2</v>
+      </c>
+      <c r="S8">
+        <v>3.5984000000000002E-2</v>
+      </c>
+      <c r="T8">
+        <v>4.7903000000000001E-2</v>
+      </c>
+      <c r="U8">
+        <v>6.2278E-2</v>
+      </c>
+      <c r="V8">
+        <v>7.9241000000000006E-2</v>
+      </c>
+      <c r="W8">
+        <v>9.8865999999999996E-2</v>
+      </c>
+      <c r="X8">
+        <v>0.121159</v>
+      </c>
+      <c r="Y8">
+        <v>0.14605599999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.173432</v>
+      </c>
+      <c r="AA8">
+        <v>0.203098</v>
+      </c>
+      <c r="AB8">
+        <v>0.234815</v>
+      </c>
+      <c r="AC8">
+        <v>0.26829700000000001</v>
+      </c>
+      <c r="AD8">
+        <v>0.30323</v>
+      </c>
+      <c r="AE8">
+        <v>0.33927400000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.37608000000000003</v>
+      </c>
+      <c r="AG8">
+        <v>0.41329900000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.45058999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.48763099999999998</v>
+      </c>
+      <c r="AJ8">
+        <v>0.52412199999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.55979299999999999</v>
+      </c>
+      <c r="AL8">
+        <v>0.59440899999999997</v>
+      </c>
+      <c r="AM8">
+        <v>0.62776699999999996</v>
+      </c>
+      <c r="AN8">
+        <v>0.65970099999999998</v>
+      </c>
+      <c r="AO8">
+        <v>0.69008100000000006</v>
+      </c>
+      <c r="AP8">
+        <v>0.71880999999999995</v>
+      </c>
+      <c r="AQ8">
+        <v>0.74582300000000001</v>
+      </c>
+      <c r="AR8">
+        <v>0.77108600000000005</v>
+      </c>
+      <c r="AS8">
+        <v>0.79458899999999999</v>
+      </c>
+      <c r="AT8">
+        <v>0.81634600000000002</v>
+      </c>
+      <c r="AU8">
+        <v>0.83638999999999997</v>
+      </c>
+      <c r="AV8">
+        <v>0.85477000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>0.30612699999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L9">
+        <v>1.9E-3</v>
+      </c>
+      <c r="M9">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O9">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.24E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S9">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="T9">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="U9">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="V9">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="W9">
+        <v>0.1002</v>
+      </c>
+      <c r="X9">
+        <v>0.1226</v>
+      </c>
+      <c r="Y9">
+        <v>0.1472</v>
+      </c>
+      <c r="Z9">
+        <v>0.1754</v>
+      </c>
+      <c r="AA9">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.4975</v>
+      </c>
+      <c r="AJ9">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="AK9">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="AL9">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="AM9">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="AN9">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AO9">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="AP9">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="AR9">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AT9">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="AU9">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="AV9">
+        <v>0.85629999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.9</v>
+      </c>
+      <c r="B10">
+        <v>0.35261599999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.35749999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.40026</v>
+      </c>
+      <c r="C11">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.1</v>
+      </c>
+      <c r="B12">
+        <v>0.448407</v>
+      </c>
+      <c r="C12">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="I12">
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="J12">
+        <v>5.2899999999999996E-4</v>
+      </c>
+      <c r="K12">
+        <v>1.044E-3</v>
+      </c>
+      <c r="L12">
+        <v>1.9220000000000001E-3</v>
+      </c>
+      <c r="M12">
+        <v>3.3289999999999999E-3</v>
+      </c>
+      <c r="N12">
+        <v>5.4730000000000004E-3</v>
+      </c>
+      <c r="O12">
+        <v>8.5939999999999992E-3</v>
+      </c>
+      <c r="P12">
+        <v>1.2958000000000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.6554000000000001E-2</v>
+      </c>
+      <c r="S12">
+        <v>3.6345000000000002E-2</v>
+      </c>
+      <c r="T12">
+        <v>4.8473000000000002E-2</v>
+      </c>
+      <c r="U12">
+        <v>6.3147999999999996E-2</v>
+      </c>
+      <c r="V12">
+        <v>8.0531000000000005E-2</v>
+      </c>
+      <c r="W12">
+        <v>0.100721</v>
+      </c>
+      <c r="X12">
+        <v>0.123756</v>
+      </c>
+      <c r="Y12">
+        <v>0.14960200000000001</v>
+      </c>
+      <c r="Z12">
+        <v>0.17815700000000001</v>
+      </c>
+      <c r="AA12">
+        <v>0.209254</v>
+      </c>
+      <c r="AB12">
+        <v>0.24266399999999999</v>
+      </c>
+      <c r="AC12">
+        <v>0.27810400000000002</v>
+      </c>
+      <c r="AD12">
+        <v>0.31524799999999997</v>
+      </c>
+      <c r="AE12">
+        <v>0.35373399999999999</v>
+      </c>
+      <c r="AF12">
+        <v>0.393175</v>
+      </c>
+      <c r="AG12">
+        <v>0.43317499999999998</v>
+      </c>
+      <c r="AH12">
+        <v>0.47333399999999998</v>
+      </c>
+      <c r="AI12">
+        <v>0.513262</v>
+      </c>
+      <c r="AJ12">
+        <v>0.552589</v>
+      </c>
+      <c r="AK12">
+        <v>0.59097200000000005</v>
+      </c>
+      <c r="AL12">
+        <v>0.62810299999999997</v>
+      </c>
+      <c r="AM12">
+        <v>0.66371500000000005</v>
+      </c>
+      <c r="AN12">
+        <v>0.69758299999999995</v>
+      </c>
+      <c r="AO12">
+        <v>0.72952899999999998</v>
+      </c>
+      <c r="AP12">
+        <v>0.75942299999999996</v>
+      </c>
+      <c r="AQ12">
+        <v>0.78717700000000002</v>
+      </c>
+      <c r="AR12">
+        <v>0.81274999999999997</v>
+      </c>
+      <c r="AS12">
+        <v>0.83613599999999999</v>
+      </c>
+      <c r="AT12">
+        <v>0.85736699999999999</v>
+      </c>
+      <c r="AU12">
+        <v>0.87650499999999998</v>
+      </c>
+      <c r="AV12">
+        <v>0.89363499999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13">
+        <v>0.49641800000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K13">
+        <v>1.8E-3</v>
+      </c>
+      <c r="L13">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M13">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="N13">
+        <v>6.3E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.01E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.54E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.12E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="S13">
+        <v>3.61E-2</v>
+      </c>
+      <c r="T13">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="U13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="V13">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.1016</v>
+      </c>
+      <c r="X13">
+        <v>0.1258</v>
+      </c>
+      <c r="Y13">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.246</v>
+      </c>
+      <c r="AC13">
+        <v>0.2873</v>
+      </c>
+      <c r="AD13">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="AE13">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="AF13">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AG13">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="AH13">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="AI13">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="AJ13">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="AK13">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="AL13">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="AM13">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="AN13">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="AO13">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="AP13">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="AQ13">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="AR13">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="AS13">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="AT13">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="AU13">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="AV13">
+        <v>0.89259999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B14">
+        <v>0.54368300000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.4</v>
+      </c>
+      <c r="B15">
+        <v>0.58963699999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>4.2120999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>6.1067000000000003E-2</v>
+      </c>
+      <c r="J15">
+        <v>8.4402000000000005E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.11211500000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.144034</v>
+      </c>
+      <c r="M15">
+        <v>0.17985699999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.219167</v>
+      </c>
+      <c r="O15">
+        <v>0.261463</v>
+      </c>
+      <c r="P15">
+        <v>0.30617800000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.35270200000000002</v>
+      </c>
+      <c r="R15">
+        <v>0.400395</v>
+      </c>
+      <c r="S15">
+        <v>0.44861299999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.49671999999999999</v>
+      </c>
+      <c r="U15">
+        <v>0.54410700000000001</v>
+      </c>
+      <c r="V15">
+        <v>0.59021100000000004</v>
+      </c>
+      <c r="W15">
+        <v>0.63453000000000004</v>
+      </c>
+      <c r="X15">
+        <v>0.67662999999999995</v>
+      </c>
+      <c r="Y15">
+        <v>0.71616299999999999</v>
+      </c>
+      <c r="Z15">
+        <v>0.75286500000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.78655799999999998</v>
+      </c>
+      <c r="AB15">
+        <v>0.81715099999999996</v>
+      </c>
+      <c r="AC15">
+        <v>0.84462999999999999</v>
+      </c>
+      <c r="AD15">
+        <v>0.86905100000000002</v>
+      </c>
+      <c r="AE15">
+        <v>0.89052699999999996</v>
+      </c>
+      <c r="AF15">
+        <v>0.90922099999999995</v>
+      </c>
+      <c r="AG15">
+        <v>0.92532800000000004</v>
+      </c>
+      <c r="AH15">
+        <v>0.93906999999999996</v>
+      </c>
+      <c r="AI15">
+        <v>0.95067800000000002</v>
+      </c>
+      <c r="AJ15">
+        <v>0.96039099999999999</v>
+      </c>
+      <c r="AK15">
+        <v>0.968441</v>
+      </c>
+      <c r="AL15">
+        <v>0.975051</v>
+      </c>
+      <c r="AM15">
+        <v>0.98042799999999997</v>
+      </c>
+      <c r="AN15">
+        <v>0.98476399999999997</v>
+      </c>
+      <c r="AO15">
+        <v>0.98822900000000002</v>
+      </c>
+      <c r="AP15">
+        <v>0.99097400000000002</v>
+      </c>
+      <c r="AQ15">
+        <v>0.99312900000000004</v>
+      </c>
+      <c r="AR15">
+        <v>0.99480800000000003</v>
+      </c>
+      <c r="AS15">
+        <v>0.99610500000000002</v>
+      </c>
+      <c r="AT15">
+        <v>0.99709899999999996</v>
+      </c>
+      <c r="AU15">
+        <v>0.99785400000000002</v>
+      </c>
+      <c r="AV15">
+        <v>0.99842299999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.5</v>
+      </c>
+      <c r="B16">
+        <v>0.63377600000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>3.95E-2</v>
+      </c>
+      <c r="I16">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.1123</v>
+      </c>
+      <c r="L16">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.2235</v>
+      </c>
+      <c r="O16">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="Q16">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="S16">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="T16">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="U16">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V16">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="W16">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="X16">
+        <v>0.6825</v>
+      </c>
+      <c r="Y16">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="Z16">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="AA16">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="AB16">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="AC16">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AE16">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="AF16">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="AG16">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="AH16">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AI16">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="AJ16">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="AK16">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="AL16">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="AM16">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="AN16">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AO16">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="AP16">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="AQ16">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="AR16">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="AS16">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="AT16">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="AU16">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="AV16">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.6</v>
+      </c>
+      <c r="B17">
+        <v>0.67567200000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2.7</v>
+      </c>
+      <c r="B18">
+        <v>0.71497999999999995</v>
+      </c>
+      <c r="C18">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.8</v>
+      </c>
+      <c r="B19">
+        <v>0.751444</v>
+      </c>
+      <c r="C19">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="I19">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="J19">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="K19">
+        <v>1.042E-3</v>
+      </c>
+      <c r="L19">
+        <v>1.9170000000000001E-3</v>
+      </c>
+      <c r="M19">
+        <v>3.32E-3</v>
+      </c>
+      <c r="N19">
+        <v>5.4530000000000004E-3</v>
+      </c>
+      <c r="O19">
+        <v>8.5550000000000001E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.2885000000000001E-2</v>
+      </c>
+      <c r="Q19">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="R19">
+        <v>2.6332999999999999E-2</v>
+      </c>
+      <c r="S19">
+        <v>3.5984000000000002E-2</v>
+      </c>
+      <c r="T19">
+        <v>4.7903000000000001E-2</v>
+      </c>
+      <c r="U19">
+        <v>6.2278E-2</v>
+      </c>
+      <c r="V19">
+        <v>7.9241000000000006E-2</v>
+      </c>
+      <c r="W19">
+        <v>9.8865999999999996E-2</v>
+      </c>
+      <c r="X19">
+        <v>0.121159</v>
+      </c>
+      <c r="Y19">
+        <v>0.14605599999999999</v>
+      </c>
+      <c r="Z19">
+        <v>0.173432</v>
+      </c>
+      <c r="AA19">
+        <v>0.203098</v>
+      </c>
+      <c r="AB19">
+        <v>0.234815</v>
+      </c>
+      <c r="AC19">
+        <v>0.26829700000000001</v>
+      </c>
+      <c r="AD19">
+        <v>0.30323</v>
+      </c>
+      <c r="AE19">
+        <v>0.33927400000000002</v>
+      </c>
+      <c r="AF19">
+        <v>0.37608000000000003</v>
+      </c>
+      <c r="AG19">
+        <v>0.41329900000000003</v>
+      </c>
+      <c r="AH19">
+        <v>0.45058999999999999</v>
+      </c>
+      <c r="AI19">
+        <v>0.48763099999999998</v>
+      </c>
+      <c r="AJ19">
+        <v>0.52412199999999998</v>
+      </c>
+      <c r="AK19">
+        <v>0.55979299999999999</v>
+      </c>
+      <c r="AL19">
+        <v>0.59440899999999997</v>
+      </c>
+      <c r="AM19">
+        <v>0.62776699999999996</v>
+      </c>
+      <c r="AN19">
+        <v>0.65970099999999998</v>
+      </c>
+      <c r="AO19">
+        <v>0.69008100000000006</v>
+      </c>
+      <c r="AP19">
+        <v>0.71880999999999995</v>
+      </c>
+      <c r="AQ19">
+        <v>0.74582300000000001</v>
+      </c>
+      <c r="AR19">
+        <v>0.77108600000000005</v>
+      </c>
+      <c r="AS19">
+        <v>0.79458899999999999</v>
+      </c>
+      <c r="AT19">
+        <v>0.81634600000000002</v>
+      </c>
+      <c r="AU19">
+        <v>0.83638999999999997</v>
+      </c>
+      <c r="AV19">
+        <v>0.85477000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.9</v>
+      </c>
+      <c r="B20">
+        <v>0.78489699999999996</v>
+      </c>
+      <c r="C20">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J20">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K20">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L20">
+        <v>1.9E-3</v>
+      </c>
+      <c r="M20">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O20">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="P20">
+        <v>1.24E-2</v>
+      </c>
+      <c r="Q20">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="R20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S20">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="T20">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="U20">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="V20">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="W20">
+        <v>0.1002</v>
+      </c>
+      <c r="X20">
+        <v>0.1226</v>
+      </c>
+      <c r="Y20">
+        <v>0.1472</v>
+      </c>
+      <c r="Z20">
+        <v>0.1754</v>
+      </c>
+      <c r="AA20">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="AC20">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="AF20">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="AG20">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AH20">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="AI20">
+        <v>0.4975</v>
+      </c>
+      <c r="AJ20">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="AK20">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="AL20">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="AM20">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="AN20">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AO20">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="AP20">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="AQ20">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="AR20">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="AS20">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AT20">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="AU20">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="AV20">
+        <v>0.85629999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0.81525599999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.81720000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.1</v>
+      </c>
+      <c r="B22">
+        <v>0.84251900000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3.2</v>
+      </c>
+      <c r="B23">
+        <v>0.86675100000000005</v>
+      </c>
+      <c r="C23">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>4.2120999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>6.1067000000000003E-2</v>
+      </c>
+      <c r="J23">
+        <v>8.4402000000000005E-2</v>
+      </c>
+      <c r="K23">
+        <v>0.112113</v>
+      </c>
+      <c r="L23">
+        <v>0.14403099999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.17984900000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.21915100000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.261434</v>
+      </c>
+      <c r="P23">
+        <v>0.30612699999999998</v>
+      </c>
+      <c r="Q23">
+        <v>0.35261599999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.40026</v>
+      </c>
+      <c r="S23">
+        <v>0.448407</v>
+      </c>
+      <c r="T23">
+        <v>0.49641800000000003</v>
+      </c>
+      <c r="U23">
+        <v>0.54368300000000003</v>
+      </c>
+      <c r="V23">
+        <v>0.58963699999999997</v>
+      </c>
+      <c r="W23">
+        <v>0.63377600000000001</v>
+      </c>
+      <c r="X23">
+        <v>0.67567200000000005</v>
+      </c>
+      <c r="Y23">
+        <v>0.71497999999999995</v>
+      </c>
+      <c r="Z23">
+        <v>0.751444</v>
+      </c>
+      <c r="AA23">
+        <v>0.78489699999999996</v>
+      </c>
+      <c r="AB23">
+        <v>0.81525599999999998</v>
+      </c>
+      <c r="AC23">
+        <v>0.84251900000000002</v>
+      </c>
+      <c r="AD23">
+        <v>0.86675100000000005</v>
+      </c>
+      <c r="AE23">
+        <v>0.88807599999999998</v>
+      </c>
+      <c r="AF23">
+        <v>0.90666100000000005</v>
+      </c>
+      <c r="AG23">
+        <v>0.92270600000000003</v>
+      </c>
+      <c r="AH23">
+        <v>0.93643399999999999</v>
+      </c>
+      <c r="AI23">
+        <v>0.948075</v>
+      </c>
+      <c r="AJ23">
+        <v>0.95786400000000005</v>
+      </c>
+      <c r="AK23">
+        <v>0.96602600000000005</v>
+      </c>
+      <c r="AL23">
+        <v>0.97277899999999995</v>
+      </c>
+      <c r="AM23">
+        <v>0.97832300000000005</v>
+      </c>
+      <c r="AN23">
+        <v>0.98284000000000005</v>
+      </c>
+      <c r="AO23">
+        <v>0.98649500000000001</v>
+      </c>
+      <c r="AP23">
+        <v>0.98943099999999995</v>
+      </c>
+      <c r="AQ23">
+        <v>0.99177400000000004</v>
+      </c>
+      <c r="AR23">
+        <v>0.99363199999999996</v>
+      </c>
+      <c r="AS23">
+        <v>0.99509599999999998</v>
+      </c>
+      <c r="AT23">
+        <v>0.99624199999999996</v>
+      </c>
+      <c r="AU23">
+        <v>0.99713399999999996</v>
+      </c>
+      <c r="AV23">
+        <v>0.99782499999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.3</v>
+      </c>
+      <c r="B24">
+        <v>0.88807599999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>3.95E-2</v>
+      </c>
+      <c r="I24">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.1123</v>
+      </c>
+      <c r="L24">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.2235</v>
+      </c>
+      <c r="O24">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="P24">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="Q24">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="R24">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="S24">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V24">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="W24">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="X24">
+        <v>0.6825</v>
+      </c>
+      <c r="Y24">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="Z24">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="AA24">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="AB24">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="AC24">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="AD24">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AE24">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="AF24">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="AG24">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="AH24">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AI24">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="AJ24">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="AK24">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="AL24">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="AM24">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="AN24">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AO24">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="AP24">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="AQ24">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="AR24">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="AS24">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="AT24">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="AU24">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="AV24">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3.4</v>
+      </c>
+      <c r="B25">
+        <v>0.90666100000000005</v>
+      </c>
+      <c r="C25">
+        <v>0.90739999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3.5</v>
+      </c>
+      <c r="B26">
+        <v>0.92270600000000003</v>
+      </c>
+      <c r="C26">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3.6</v>
+      </c>
+      <c r="B27">
+        <v>0.93643399999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.93669999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3.7</v>
+      </c>
+      <c r="B28">
+        <v>0.948075</v>
+      </c>
+      <c r="C28">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0.1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="J28">
         <v>0.2</v>
       </c>
-      <c r="B3">
-        <v>9.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="K28">
         <v>0.3</v>
       </c>
-      <c r="B4">
-        <v>1.7799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="L28">
         <v>0.4</v>
       </c>
-      <c r="B5">
-        <v>1.0690000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="M28">
         <v>0.5</v>
       </c>
-      <c r="B6">
-        <v>4.2820000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="N28">
         <v>0.6</v>
       </c>
-      <c r="B7">
-        <v>1.2016000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="O28">
         <v>0.7</v>
       </c>
-      <c r="B8">
-        <v>2.6866000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="P28">
         <v>0.8</v>
       </c>
-      <c r="B9">
-        <v>5.1728000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="Q28">
         <v>0.9</v>
       </c>
-      <c r="B10">
-        <v>8.8322999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="R28">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>0.13741200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="S28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12">
-        <v>0.19964999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="T28">
         <v>1.2</v>
       </c>
-      <c r="B13">
-        <v>0.27320499999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="U28">
         <v>1.3</v>
       </c>
-      <c r="B14">
-        <v>0.35660799999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="V28">
         <v>1.4</v>
       </c>
-      <c r="B15">
-        <v>0.44647999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="W28">
         <v>1.5</v>
       </c>
-      <c r="B16">
-        <v>0.539852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="X28">
         <v>1.6</v>
       </c>
-      <c r="B17">
-        <v>0.63233099999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="Y28">
         <v>1.7</v>
       </c>
-      <c r="B18">
-        <v>0.72029399999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="Z28">
         <v>1.8</v>
       </c>
-      <c r="B19">
-        <v>0.79883700000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="AA28">
         <v>1.9</v>
       </c>
-      <c r="B20">
-        <v>0.86436400000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="AB28">
         <v>2</v>
       </c>
-      <c r="B21">
-        <v>0.91461999999999999</v>
+      <c r="AC28">
+        <v>2.1</v>
+      </c>
+      <c r="AD28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF28">
+        <v>2.4</v>
+      </c>
+      <c r="AG28">
+        <v>2.5</v>
+      </c>
+      <c r="AH28">
+        <v>2.6</v>
+      </c>
+      <c r="AI28">
+        <v>2.7</v>
+      </c>
+      <c r="AJ28">
+        <v>2.8</v>
+      </c>
+      <c r="AK28">
+        <v>2.9</v>
+      </c>
+      <c r="AL28">
+        <v>3</v>
+      </c>
+      <c r="AM28">
+        <v>3.1</v>
+      </c>
+      <c r="AN28">
+        <v>3.2</v>
+      </c>
+      <c r="AO28">
+        <v>3.3</v>
+      </c>
+      <c r="AP28">
+        <v>3.4</v>
+      </c>
+      <c r="AQ28">
+        <v>3.5</v>
+      </c>
+      <c r="AR28">
+        <v>3.6</v>
+      </c>
+      <c r="AS28">
+        <v>3.7</v>
+      </c>
+      <c r="AT28">
+        <v>3.8</v>
+      </c>
+      <c r="AU28">
+        <v>3.9</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3.8</v>
+      </c>
+      <c r="B29">
+        <v>0.95786400000000005</v>
+      </c>
+      <c r="C29">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.9</v>
+      </c>
+      <c r="B30">
+        <v>0.96602600000000005</v>
+      </c>
+      <c r="C30">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="J30">
+        <v>1.7520000000000001E-3</v>
+      </c>
+      <c r="K30">
+        <v>7.2989999999999999E-3</v>
+      </c>
+      <c r="L30">
+        <v>1.9036000000000001E-2</v>
+      </c>
+      <c r="M30">
+        <v>3.8483000000000003E-2</v>
+      </c>
+      <c r="N30">
+        <v>6.6323999999999994E-2</v>
+      </c>
+      <c r="O30">
+        <v>0.10252799999999999</v>
+      </c>
+      <c r="P30">
+        <v>0.14651600000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.19731399999999999</v>
+      </c>
+      <c r="R30">
+        <v>0.253664</v>
+      </c>
+      <c r="S30">
+        <v>0.31411699999999998</v>
+      </c>
+      <c r="T30">
+        <v>0.37711800000000001</v>
+      </c>
+      <c r="U30">
+        <v>0.44108599999999998</v>
+      </c>
+      <c r="V30">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="W30">
+        <v>0.56597799999999998</v>
+      </c>
+      <c r="X30">
+        <v>0.62434299999999998</v>
+      </c>
+      <c r="Y30">
+        <v>0.67866400000000004</v>
+      </c>
+      <c r="Z30">
+        <v>0.72828599999999999</v>
+      </c>
+      <c r="AA30">
+        <v>0.77281900000000003</v>
+      </c>
+      <c r="AB30">
+        <v>0.81212200000000001</v>
+      </c>
+      <c r="AC30">
+        <v>0.84626500000000004</v>
+      </c>
+      <c r="AD30">
+        <v>0.87548499999999996</v>
+      </c>
+      <c r="AE30">
+        <v>0.90014099999999997</v>
+      </c>
+      <c r="AF30">
+        <v>0.92067299999999996</v>
+      </c>
+      <c r="AG30">
+        <v>0.93755500000000003</v>
+      </c>
+      <c r="AH30">
+        <v>0.95127200000000001</v>
+      </c>
+      <c r="AI30">
+        <v>0.96229399999999998</v>
+      </c>
+      <c r="AJ30">
+        <v>0.97105699999999995</v>
+      </c>
+      <c r="AK30">
+        <v>0.97795399999999999</v>
+      </c>
+      <c r="AL30">
+        <v>0.98333000000000004</v>
+      </c>
+      <c r="AM30">
+        <v>0.98748499999999995</v>
+      </c>
+      <c r="AN30">
+        <v>0.99066699999999996</v>
+      </c>
+      <c r="AO30">
+        <v>0.993085</v>
+      </c>
+      <c r="AP30">
+        <v>0.99490900000000004</v>
+      </c>
+      <c r="AQ30">
+        <v>0.99627299999999996</v>
+      </c>
+      <c r="AR30">
+        <v>0.99728799999999995</v>
+      </c>
+      <c r="AS30">
+        <v>0.99803699999999995</v>
+      </c>
+      <c r="AT30">
+        <v>0.998587</v>
+      </c>
+      <c r="AU30">
+        <v>0.99898799999999999</v>
+      </c>
+      <c r="AV30">
+        <v>0.999278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.97277899999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L31">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="M31">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="N31">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="O31">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.1908</v>
+      </c>
+      <c r="R31">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="S31">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="T31">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="U31">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="V31">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="W31">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="X31">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="Z31">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="AB31">
+        <v>0.82</v>
+      </c>
+      <c r="AC31">
+        <v>0.8548</v>
+      </c>
+      <c r="AD31">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="AE31">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AF31">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="AG31">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="AH31">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="AI31">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AJ31">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AK31">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="AL31">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="AM31">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="AN31">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="AO31">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="AP31">
+        <v>0.997</v>
+      </c>
+      <c r="AQ31">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="AR31">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="AS31">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="AT31">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AU31">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AV31">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B32">
+        <v>0.97832300000000005</v>
+      </c>
+      <c r="C32">
+        <v>0.98089999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4.2</v>
+      </c>
+      <c r="B33">
+        <v>0.98284000000000005</v>
+      </c>
+      <c r="C33">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4.3</v>
+      </c>
+      <c r="B34">
+        <v>0.98649500000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.4E-5</v>
+      </c>
+      <c r="K34">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="L34">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="M34">
+        <v>1.838E-3</v>
+      </c>
+      <c r="N34">
+        <v>4.457E-3</v>
+      </c>
+      <c r="O34">
+        <v>9.1369999999999993E-3</v>
+      </c>
+      <c r="P34">
+        <v>1.6576E-2</v>
+      </c>
+      <c r="Q34">
+        <v>2.7403E-2</v>
+      </c>
+      <c r="R34">
+        <v>4.2120999999999999E-2</v>
+      </c>
+      <c r="S34">
+        <v>6.1067000000000003E-2</v>
+      </c>
+      <c r="T34">
+        <v>8.4402000000000005E-2</v>
+      </c>
+      <c r="U34">
+        <v>0.11211500000000001</v>
+      </c>
+      <c r="V34">
+        <v>0.144034</v>
+      </c>
+      <c r="W34">
+        <v>0.17985699999999999</v>
+      </c>
+      <c r="X34">
+        <v>0.219167</v>
+      </c>
+      <c r="Y34">
+        <v>0.261463</v>
+      </c>
+      <c r="Z34">
+        <v>0.30617800000000001</v>
+      </c>
+      <c r="AA34">
+        <v>0.35270200000000002</v>
+      </c>
+      <c r="AB34">
+        <v>0.400395</v>
+      </c>
+      <c r="AC34">
+        <v>0.44861299999999998</v>
+      </c>
+      <c r="AD34">
+        <v>0.49671999999999999</v>
+      </c>
+      <c r="AE34">
+        <v>0.54410700000000001</v>
+      </c>
+      <c r="AF34">
+        <v>0.59021100000000004</v>
+      </c>
+      <c r="AG34">
+        <v>0.63453000000000004</v>
+      </c>
+      <c r="AH34">
+        <v>0.67662999999999995</v>
+      </c>
+      <c r="AI34">
+        <v>0.71616299999999999</v>
+      </c>
+      <c r="AJ34">
+        <v>0.75286500000000001</v>
+      </c>
+      <c r="AK34">
+        <v>0.78655799999999998</v>
+      </c>
+      <c r="AL34">
+        <v>0.81715099999999996</v>
+      </c>
+      <c r="AM34">
+        <v>0.84462999999999999</v>
+      </c>
+      <c r="AN34">
+        <v>0.86905100000000002</v>
+      </c>
+      <c r="AO34">
+        <v>0.89052699999999996</v>
+      </c>
+      <c r="AP34">
+        <v>0.90922099999999995</v>
+      </c>
+      <c r="AQ34">
+        <v>0.92532800000000004</v>
+      </c>
+      <c r="AR34">
+        <v>0.93906999999999996</v>
+      </c>
+      <c r="AS34">
+        <v>0.95067800000000002</v>
+      </c>
+      <c r="AT34">
+        <v>0.96039099999999999</v>
+      </c>
+      <c r="AU34">
+        <v>0.968441</v>
+      </c>
+      <c r="AV34">
+        <v>0.975051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B35">
+        <v>0.98943099999999995</v>
+      </c>
+      <c r="C35">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1E-4</v>
+      </c>
+      <c r="L35">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M35">
+        <v>2E-3</v>
+      </c>
+      <c r="N35">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="O35">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="P35">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="Q35">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="R35">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="S35">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="T35">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="U35">
+        <v>0.1152</v>
+      </c>
+      <c r="V35">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="W35">
+        <v>0.1807</v>
+      </c>
+      <c r="X35">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="Y35">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="Z35">
+        <v>0.309</v>
+      </c>
+      <c r="AA35">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="AC35">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="AD35">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="AE35">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="AF35">
+        <v>0.59540000000000004</v>
+      </c>
+      <c r="AG35">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="AH35">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="AI35">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="AJ35">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="AK35">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="AL35">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AM35">
+        <v>0.8448</v>
+      </c>
+      <c r="AN35">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="AO35">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="AP35">
+        <v>0.9093</v>
+      </c>
+      <c r="AQ35">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="AR35">
+        <v>0.9365</v>
+      </c>
+      <c r="AS35">
+        <v>0.9476</v>
+      </c>
+      <c r="AT35">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="AU35">
+        <v>0.9657</v>
+      </c>
+      <c r="AV35">
+        <v>0.97240000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4.5</v>
+      </c>
+      <c r="B36">
+        <v>0.99177400000000004</v>
+      </c>
+      <c r="C36">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B37">
+        <v>0.99363199999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4.7</v>
+      </c>
+      <c r="B38">
+        <v>0.99509599999999998</v>
+      </c>
+      <c r="C38">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M38">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="N38">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="O38">
+        <v>4.6799999999999999E-4</v>
+      </c>
+      <c r="P38">
+        <v>1.0970000000000001E-3</v>
+      </c>
+      <c r="Q38">
+        <v>2.2669999999999999E-3</v>
+      </c>
+      <c r="R38">
+        <v>4.2469999999999999E-3</v>
+      </c>
+      <c r="S38">
+        <v>7.3480000000000004E-3</v>
+      </c>
+      <c r="T38">
+        <v>1.1906999999999999E-2</v>
+      </c>
+      <c r="U38">
+        <v>1.8266999999999999E-2</v>
+      </c>
+      <c r="V38">
+        <v>2.6752999999999999E-2</v>
+      </c>
+      <c r="W38">
+        <v>3.7652999999999999E-2</v>
+      </c>
+      <c r="X38">
+        <v>5.1199000000000001E-2</v>
+      </c>
+      <c r="Y38">
+        <v>6.7558000000000007E-2</v>
+      </c>
+      <c r="Z38">
+        <v>8.6819999999999994E-2</v>
+      </c>
+      <c r="AA38">
+        <v>0.109002</v>
+      </c>
+      <c r="AB38">
+        <v>0.134046</v>
+      </c>
+      <c r="AC38">
+        <v>0.161825</v>
+      </c>
+      <c r="AD38">
+        <v>0.19215099999999999</v>
+      </c>
+      <c r="AE38">
+        <v>0.22478600000000001</v>
+      </c>
+      <c r="AF38">
+        <v>0.25944899999999999</v>
+      </c>
+      <c r="AG38">
+        <v>0.29582599999999998</v>
+      </c>
+      <c r="AH38">
+        <v>0.33358100000000002</v>
+      </c>
+      <c r="AI38">
+        <v>0.372361</v>
+      </c>
+      <c r="AJ38">
+        <v>0.41180499999999998</v>
+      </c>
+      <c r="AK38">
+        <v>0.45155200000000001</v>
+      </c>
+      <c r="AL38">
+        <v>0.49124600000000002</v>
+      </c>
+      <c r="AM38">
+        <v>0.53054199999999996</v>
+      </c>
+      <c r="AN38">
+        <v>0.56911699999999998</v>
+      </c>
+      <c r="AO38">
+        <v>0.60666699999999996</v>
+      </c>
+      <c r="AP38">
+        <v>0.64291900000000002</v>
+      </c>
+      <c r="AQ38">
+        <v>0.67763600000000002</v>
+      </c>
+      <c r="AR38">
+        <v>0.71061399999999997</v>
+      </c>
+      <c r="AS38">
+        <v>0.74168999999999996</v>
+      </c>
+      <c r="AT38">
+        <v>0.77074399999999998</v>
+      </c>
+      <c r="AU38">
+        <v>0.79769299999999999</v>
+      </c>
+      <c r="AV38">
+        <v>0.822496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4.8</v>
+      </c>
+      <c r="B39">
+        <v>0.99624199999999996</v>
+      </c>
+      <c r="C39">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O39">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P39">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Q39">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R39">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="S39">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="T39">
+        <v>1.09E-2</v>
+      </c>
+      <c r="U39">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="V39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="W39">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="X39">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="Y39">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="Z39">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AA39">
+        <v>0.1033</v>
+      </c>
+      <c r="AB39">
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="AC39">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="AD39">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="AE39">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="AF39">
+        <v>0.2621</v>
+      </c>
+      <c r="AG39">
+        <v>0.29980000000000001</v>
+      </c>
+      <c r="AH39">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="AI39">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="AJ39">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AK39">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="AL39">
+        <v>0.4975</v>
+      </c>
+      <c r="AM39">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="AN39">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="AO39">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="AP39">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="AQ39">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AR39">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="AS39">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="AT39">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="AU39">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="AV39">
+        <v>0.82389999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B40">
+        <v>0.99713399999999996</v>
+      </c>
+      <c r="C40">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0.99782499999999996</v>
+      </c>
+      <c r="C41">
+        <v>0.99860000000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>